--- a/tests/output/10-row-styles.xlsx
+++ b/tests/output/10-row-styles.xlsx
@@ -501,6 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -544,6 +547,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="10.4" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -579,6 +586,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -614,6 +625,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="15.2" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
@@ -657,6 +672,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="9.2" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -692,6 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
